--- a/documents/01_ToDoList.xlsx
+++ b/documents/01_ToDoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\04_Github\Photo-Journal\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66763C0E-551E-4293-98FC-04F3133A1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3BDEDE-CE13-4E73-A9C3-7910C462506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>It is not sure what kind of DB we'll install, we can think after startigng coding.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Function1:Users can upload and save photos</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -669,10 +673,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
